--- a/biology/Neurosciences/Registre_sensoriel/Registre_sensoriel.xlsx
+++ b/biology/Neurosciences/Registre_sensoriel/Registre_sensoriel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle registre sensoriel, ou « mémoire sensorielle » la structure qui garde pendant un très court laps de temps (quelques millisecondes) l'information sensorielle, c'est-à-dire, les sons, les images, les odeurs, etc., qui nous atteint la plupart du temps inconsciemment.
 L'enregistrement sensoriel est ce qui nous met en contact avec le monde extérieur. En effet, à chaque instant nous sommes exposés à une multitude de stimuli, dont pour la plupart nous ne prenons pas conscience. Cependant, même s'il est nécessaire de porter notre attention sur ces stimuli pour en saisir le sens, cela ne veut pas dire qu'ils ne sont pas enregistrés par notre organisme. Au contraire, toutes les informations qui atteignent nos sens sont enregistrées. 
